--- a/csvファイル/ItemSpecification.xlsx
+++ b/csvファイル/ItemSpecification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_kobayashi\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_kobayashi\Documents\GitHub\Sotuken\csvファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB10A76B-4AD0-4C3B-8E8E-7EA26B58FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525E72D-0787-4EAF-BBE2-7E1B37F9BECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68805863-DE10-44A6-85A0-C6154CF13CF8}"/>
   </bookViews>
